--- a/xlsx/BMW_intext.xlsx
+++ b/xlsx/BMW_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="552">
   <si>
     <t>BMW</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_BMW</t>
+    <t>股票代号</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_BMW</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E7%A6%8F%E8%AF%81%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E4%BC%AF%E7%89%B9%C2%B7%E9%9B%B7%E7%91%9F%E5%A4%AB</t>
   </si>
   <si>
-    <t>諾伯特·雷瑟夫</t>
+    <t>诺伯特·雷瑟夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9A%E5%B7%9E</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%85%AC%E5%8F%B8</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E9%A6%AC%E8%BF%B7%E4%BD%A0</t>
   </si>
   <si>
-    <t>寶馬迷你</t>
+    <t>宝马迷你</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%99%A8%E5%AE%9D%E9%A9%AC</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E6%BE%B3</t>
@@ -173,27 +173,21 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BB%8A</t>
   </si>
   <si>
-    <t>摩托車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
@@ -203,21 +197,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A8%99</t>
   </si>
   <si>
-    <t>商標</t>
+    <t>商标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E6%96%AF%E8%90%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>勞斯萊斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%BF%AA</t>
   </si>
   <si>
@@ -233,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E9%A6%AC%E5%85%AC%E5%8F%B8%E7%B8%BD%E9%83%A8%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>寶馬公司總部大廈</t>
+    <t>宝马公司总部大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_X6</t>
@@ -245,25 +233,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%B3%E8%B8%8F%E8%BB%8A</t>
   </si>
   <si>
-    <t>腳踏車</t>
+    <t>脚踏车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9E%E9%A3%9B%E6%A9%9F%E8%A3%BD%E9%80%A0%E5%BB%A0</t>
   </si>
   <si>
-    <t>巴伐利亞飛機製造廠</t>
+    <t>巴伐利亚飞机制造厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
@@ -293,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>凡爾賽條約</t>
+    <t>凡尔赛条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%B8%E5%82%B3%E5%8B%95</t>
   </si>
   <si>
-    <t>軸傳動</t>
+    <t>轴传动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9E%97%E6%A0%B9</t>
   </si>
   <si>
-    <t>圖林根</t>
+    <t>图林根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%A3%AE%E7%BA%B3%E8%B5%AB</t>
@@ -317,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬克</t>
+    <t>马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%99%BB-%E5%B7%B4%E7%99%BB</t>
@@ -329,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A3%AB</t>
   </si>
   <si>
-    <t>賓士</t>
+    <t>宾士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eisenacher_Motorenwerk</t>
@@ -341,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%AF%B6</t>
   </si>
   <si>
-    <t>歐寶</t>
+    <t>欧宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_7%E7%B3%BB%E5%88%97</t>
@@ -395,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎車</t>
+    <t>轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>旅行車</t>
+    <t>旅行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_4%E7%B3%BB%E5%88%97</t>
@@ -425,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>休旅車</t>
+    <t>休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_X4</t>
@@ -437,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%95%8C%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>跨界休旅車</t>
+    <t>跨界休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_X5</t>
@@ -449,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%9E%8B%E5%A4%9A%E7%94%A8%E9%80%94%E8%BB%8A</t>
   </si>
   <si>
-    <t>運動型多用途車</t>
+    <t>运动型多用途车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_M</t>
@@ -515,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>賽車</t>
+    <t>赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>一級方程式賽車</t>
+    <t>一级方程式赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E5%A7%86%E6%96%AF%E8%BD%A6%E9%98%9F</t>
@@ -533,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/BMW%E7%B4%A2%E4%BC%AF%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>BMW索伯車隊</t>
+    <t>BMW索伯车队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Hire</t>
@@ -557,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AE%E5%85%A5%E6%80%A7%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>置入性行銷</t>
+    <t>置入性行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福特汽車</t>
+    <t>福特汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9</t>
@@ -581,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E9%A0%93%C2%B7%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>阿斯頓·馬丁</t>
+    <t>阿斯顿·马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -815,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%BA%A7%E6%95%9E%E7%AF%B7%E8%BB%8A</t>
   </si>
   <si>
-    <t>雙座敞篷車</t>
+    <t>双座敞篷车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_Z</t>
@@ -947,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%BF%AA%E9%81%94</t>
   </si>
   <si>
-    <t>愛迪達</t>
+    <t>爱迪达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%81%94</t>
@@ -1079,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%85%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>默克集團</t>
+    <t>默克集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91%E5%86%8D%E4%BF%9D%E9%99%A9</t>
@@ -1133,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>德國經濟</t>
+    <t>德国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E4%BA%A4%E9%80%9A</t>
@@ -1265,9 +1253,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%AE%9D</t>
   </si>
   <si>
-    <t>欧宝</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Hyundai_Motor_Europe_GmbH</t>
   </si>
   <si>
@@ -1295,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/NSU%E8%BB%8A%E5%BB%A0</t>
   </si>
   <si>
-    <t>NSU車廠</t>
+    <t>NSU车厂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wanderer_(car)</t>
@@ -1307,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F_(%E8%BD%8E%E8%BB%8A)</t>
   </si>
   <si>
-    <t>衛星 (轎車)</t>
+    <t>卫星 (轿车)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hansa_(car)</t>
@@ -1403,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%89%B9%E6%8B%89%E5%85%8B%E5%82%B3%E5%8B%95%E7%B3%BB%E7%B5%B1%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>格特拉克傳動系統有限公司</t>
+    <t>格特拉克传动系统有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%8B%89</t>
@@ -1511,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>卡爾森</t>
+    <t>卡尔森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/G-Power</t>
@@ -1601,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%AD%E5%85%8B%E6%96%AF%E7%89%B9%E7%A7%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>席克斯特租車</t>
+    <t>席克斯特租车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%BE%B7%E6%B1%BD%E8%BD%A6%E4%BF%B1%E4%B9%90%E9%83%A8</t>
@@ -1625,19 +1610,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%88%BF%E8%BB%8A%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>德國房車大師賽</t>
+    <t>德国房车大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>法蘭克福車展</t>
+    <t>法兰克福车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%B1%BD%E8%BB%8A%E5%B7%A5%E6%A5%AD%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國汽車工業協會</t>
+    <t>德国汽车工业协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%8D%9A%E6%A0%BC%E6%9E%97%E8%B5%9B%E9%81%93</t>
@@ -1649,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1667,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1679,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2839,7 +2824,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
         <v>18</v>
@@ -2865,10 +2850,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
         <v>14</v>
@@ -2894,10 +2879,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>24</v>
@@ -2923,10 +2908,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
         <v>13</v>
@@ -2952,10 +2937,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3010,10 +2995,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3039,10 +3024,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -3068,10 +3053,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -3097,10 +3082,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3126,10 +3111,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3155,10 +3140,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3184,10 +3169,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3213,10 +3198,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3242,10 +3227,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3271,10 +3256,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3300,10 +3285,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3329,10 +3314,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3358,10 +3343,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3387,10 +3372,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3416,10 +3401,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3445,10 +3430,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3474,10 +3459,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3503,10 +3488,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3532,10 +3517,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3561,10 +3546,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3590,10 +3575,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3619,10 +3604,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3648,10 +3633,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3677,10 +3662,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3706,10 +3691,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3735,10 +3720,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -3764,10 +3749,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3793,10 +3778,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -3822,10 +3807,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3851,10 +3836,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3880,10 +3865,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F64" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G64" t="n">
         <v>7</v>
@@ -3909,10 +3894,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
@@ -3938,10 +3923,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3967,10 +3952,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3996,10 +3981,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -4025,10 +4010,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4054,10 +4039,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F70" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4083,10 +4068,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F71" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G71" t="n">
         <v>9</v>
@@ -4112,10 +4097,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -4141,10 +4126,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F73" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -4170,10 +4155,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G74" t="n">
         <v>6</v>
@@ -4199,10 +4184,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4228,10 +4213,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -4257,10 +4242,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -4286,10 +4271,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F78" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4315,10 +4300,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4344,10 +4329,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F80" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G80" t="n">
         <v>10</v>
@@ -4373,10 +4358,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F81" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4402,10 +4387,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4431,10 +4416,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4460,10 +4445,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G84" t="n">
         <v>6</v>
@@ -4489,10 +4474,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4518,10 +4503,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G86" t="n">
         <v>8</v>
@@ -4547,10 +4532,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F87" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G87" t="n">
         <v>7</v>
@@ -4576,10 +4561,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F88" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4605,10 +4590,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4634,10 +4619,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -4663,10 +4648,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F91" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4692,10 +4677,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F92" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4721,10 +4706,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4750,10 +4735,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F94" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4779,10 +4764,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F95" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4808,10 +4793,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F96" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G96" t="n">
         <v>7</v>
@@ -4837,10 +4822,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4866,10 +4851,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4895,10 +4880,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F99" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4924,10 +4909,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4953,10 +4938,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F101" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4982,10 +4967,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F102" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5011,10 +4996,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F103" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5040,10 +5025,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F104" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5069,10 +5054,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F105" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5098,10 +5083,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F106" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5127,10 +5112,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F107" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5156,10 +5141,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F108" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -5185,10 +5170,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F109" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5214,10 +5199,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F110" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5243,10 +5228,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F111" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5272,10 +5257,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F112" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5301,10 +5286,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F113" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5330,10 +5315,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F114" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5359,10 +5344,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F115" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5388,10 +5373,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F116" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5417,10 +5402,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F117" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5446,10 +5431,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F118" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5475,10 +5460,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F119" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -5504,10 +5489,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F120" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5533,10 +5518,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F121" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5562,10 +5547,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F122" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5591,10 +5576,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F123" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5620,10 +5605,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F124" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5649,10 +5634,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F125" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5678,10 +5663,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F126" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5707,10 +5692,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F127" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5736,10 +5721,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F128" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5765,10 +5750,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F129" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5794,10 +5779,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F130" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5823,10 +5808,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F131" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5852,10 +5837,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F132" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5881,10 +5866,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F133" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5910,10 +5895,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F134" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5939,10 +5924,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F135" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5968,10 +5953,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F136" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5997,10 +5982,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F137" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6026,10 +6011,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F138" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6055,10 +6040,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6084,10 +6069,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F140" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6113,10 +6098,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F141" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6142,10 +6127,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F142" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6171,10 +6156,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6200,10 +6185,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F144" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G144" t="n">
         <v>6</v>
@@ -6229,10 +6214,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F145" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6258,10 +6243,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F146" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6287,10 +6272,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F147" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -6316,10 +6301,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F148" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6345,10 +6330,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F149" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6374,10 +6359,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F150" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6403,10 +6388,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F151" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6432,10 +6417,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F152" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6461,10 +6446,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F153" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G153" t="n">
         <v>247</v>
@@ -6490,10 +6475,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F154" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6519,10 +6504,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F155" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6548,10 +6533,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F156" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6577,10 +6562,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F157" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6606,10 +6591,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F158" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6635,10 +6620,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F159" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6664,10 +6649,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F160" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6693,10 +6678,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F161" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6722,10 +6707,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F162" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6751,10 +6736,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F163" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6780,10 +6765,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F164" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6809,10 +6794,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F165" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6838,10 +6823,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F166" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6867,10 +6852,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F167" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6896,10 +6881,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F168" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6925,10 +6910,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F169" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6954,10 +6939,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F170" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6983,10 +6968,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F171" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7012,10 +6997,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F172" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -7041,10 +7026,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F173" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G173" t="n">
         <v>11</v>
@@ -7070,10 +7055,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F174" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7099,10 +7084,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F175" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7128,10 +7113,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F176" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G176" t="n">
         <v>4</v>
@@ -7157,10 +7142,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F177" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7186,10 +7171,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F178" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7215,10 +7200,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F179" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7244,10 +7229,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F180" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7273,10 +7258,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F181" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7302,10 +7287,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F182" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7331,10 +7316,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F183" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7360,10 +7345,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F184" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7389,10 +7374,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F185" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7418,10 +7403,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F186" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7447,10 +7432,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F187" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7476,10 +7461,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F188" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -7505,10 +7490,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F189" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7534,10 +7519,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F190" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7563,10 +7548,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F191" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G191" t="n">
         <v>4</v>
@@ -7592,10 +7577,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F192" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7621,10 +7606,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F193" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7650,10 +7635,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F194" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G194" t="n">
         <v>5</v>
@@ -7679,10 +7664,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F195" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7708,10 +7693,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F196" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7737,10 +7722,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F197" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7766,10 +7751,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F198" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7795,10 +7780,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F199" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7824,10 +7809,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F200" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7853,10 +7838,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F201" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7882,10 +7867,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F202" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7911,10 +7896,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F203" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7940,10 +7925,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F204" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7969,10 +7954,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F205" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7998,10 +7983,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F206" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8027,10 +8012,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F207" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8056,10 +8041,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F208" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8085,10 +8070,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F209" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8114,10 +8099,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F210" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8143,10 +8128,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F211" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8172,10 +8157,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F212" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8201,10 +8186,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F213" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8230,10 +8215,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F214" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8259,10 +8244,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F215" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8288,10 +8273,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F216" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8317,10 +8302,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F217" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8346,10 +8331,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F218" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8375,10 +8360,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F219" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8404,10 +8389,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F220" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8433,10 +8418,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F221" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8462,10 +8447,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F222" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8491,10 +8476,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F223" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8520,10 +8505,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F224" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8549,10 +8534,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F225" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8578,10 +8563,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F226" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -8607,10 +8592,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F227" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8636,10 +8621,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F228" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8665,10 +8650,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F229" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8694,10 +8679,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F230" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G230" t="n">
         <v>11</v>
@@ -8723,10 +8708,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F231" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8752,10 +8737,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F232" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8781,10 +8766,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F233" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8810,10 +8795,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F234" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8839,10 +8824,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F235" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8868,10 +8853,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F236" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8897,10 +8882,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F237" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8926,10 +8911,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F238" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -8955,10 +8940,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F239" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8984,10 +8969,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F240" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9013,10 +8998,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F241" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9042,10 +9027,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F242" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -9071,10 +9056,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F243" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9100,10 +9085,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F244" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9129,10 +9114,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F245" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9158,10 +9143,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F246" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9187,10 +9172,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F247" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9216,10 +9201,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F248" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9245,10 +9230,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F249" t="s">
-        <v>416</v>
+        <v>104</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9274,10 +9259,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F250" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9303,10 +9288,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F251" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9332,10 +9317,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F252" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9361,10 +9346,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F253" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9390,10 +9375,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F254" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9419,10 +9404,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F255" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9448,10 +9433,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F256" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9477,10 +9462,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F257" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9506,10 +9491,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F258" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9535,10 +9520,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F259" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9564,10 +9549,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F260" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -9593,10 +9578,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F261" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9622,10 +9607,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F262" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -9651,10 +9636,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F263" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -9680,10 +9665,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F264" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9709,10 +9694,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F265" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9738,10 +9723,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F266" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9767,10 +9752,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F267" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -9796,10 +9781,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F268" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -9825,10 +9810,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F269" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9854,10 +9839,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F270" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -9883,10 +9868,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F271" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -9912,10 +9897,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F272" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -9941,10 +9926,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F273" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9970,10 +9955,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F274" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9999,10 +9984,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F275" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10028,10 +10013,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F276" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10057,10 +10042,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F277" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10086,10 +10071,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F278" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10115,10 +10100,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F279" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -10144,10 +10129,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F280" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10173,10 +10158,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F281" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10202,10 +10187,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F282" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10231,10 +10216,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F283" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10260,10 +10245,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F284" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10289,10 +10274,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F285" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10318,10 +10303,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F286" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10347,10 +10332,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F287" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10376,10 +10361,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F288" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10405,10 +10390,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F289" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10434,10 +10419,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F290" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10463,10 +10448,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F291" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10492,10 +10477,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F292" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10521,10 +10506,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F293" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -10550,10 +10535,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F294" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -10579,10 +10564,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F295" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -10608,10 +10593,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F296" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -10637,10 +10622,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F297" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -10666,10 +10651,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F298" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -10695,10 +10680,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F299" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -10724,10 +10709,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F300" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -10753,10 +10738,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F301" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10782,10 +10767,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F302" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -10811,10 +10796,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F303" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -10840,10 +10825,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F304" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -10869,10 +10854,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F305" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -10898,10 +10883,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F306" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -10927,10 +10912,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F307" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -10956,10 +10941,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F308" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -10985,10 +10970,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F309" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11014,10 +10999,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F310" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11043,10 +11028,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F311" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11072,10 +11057,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F312" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11101,10 +11086,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F313" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11130,10 +11115,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F314" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11159,10 +11144,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F315" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G315" t="n">
         <v>3</v>
@@ -11188,10 +11173,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F316" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11217,10 +11202,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F317" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11246,10 +11231,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F318" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11275,10 +11260,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F319" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11304,10 +11289,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F320" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11333,10 +11318,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F321" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
